--- a/Readdata/Plantilla.xlsx
+++ b/Readdata/Plantilla.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B71982-BA38-4792-A3B7-6A5CFBC335EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3382DC6C-FA54-4415-A47D-DD0DF440B355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Media filmafinity</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>FA + ruido</t>
   </si>
 </sst>
 </file>
@@ -889,32 +892,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FF33CC33"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -942,6 +920,9 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.0"/>
@@ -975,11 +956,36 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <right style="thin">
           <color indexed="64"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF33CC33"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1078,12 +1084,12 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Notas!$C$2:$C$1048576</c:f>
+              <c:f>Notas!$K$2:$K$1048576</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
-                  <c:v>5.4</c:v>
+                  <c:v>5.4285863685530513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,7 +1101,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
-                  <c:v>2.1978834288391433</c:v>
+                  <c:v>2.2188276872210952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1122,7 +1128,8 @@
         <c:axId val="496084848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
+          <c:max val="10.5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1140,7 +1147,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1180,6 +1187,7 @@
         <c:crossAx val="496085176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="496085176"/>
@@ -13585,23 +13593,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E78E77D8-C91F-4F8B-8288-E3F750D0DE1E}" name="Tabla1" displayName="Tabla1" ref="A1:L1048576" totalsRowShown="0" tableBorderDxfId="10">
-  <autoFilter ref="A1:L1048576" xr:uid="{B7E8E3F6-4A56-4C38-9CDA-83612E98463A}"/>
-  <tableColumns count="12">
-    <tableColumn id="12" xr3:uid="{0AB4C432-387A-4CA4-B057-810DBFBD7743}" name="Id" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{D4B468C3-7CDA-4F31-9638-09A527779C87}" name="Mia" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E78E77D8-C91F-4F8B-8288-E3F750D0DE1E}" name="Tabla1" displayName="Tabla1" ref="A1:M1048576" totalsRowShown="0" tableBorderDxfId="9">
+  <autoFilter ref="A1:M1048576" xr:uid="{B7E8E3F6-4A56-4C38-9CDA-83612E98463A}"/>
+  <tableColumns count="13">
+    <tableColumn id="12" xr3:uid="{0AB4C432-387A-4CA4-B057-810DBFBD7743}" name="Id" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{D4B468C3-7CDA-4F31-9638-09A527779C87}" name="Mia" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{65EE12B7-2552-4910-A353-7AE48A3D7AA6}" name="FA"/>
-    <tableColumn id="3" xr3:uid="{1D6E5D7A-6668-40F4-BA00-3A91CC9AC5BF}" name="Duracion" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E8F61A2B-CC2B-4DF4-AE8C-8C20147ABC40}" name="Visionados" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1D6E5D7A-6668-40F4-BA00-3A91CC9AC5BF}" name="Duracion" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E8F61A2B-CC2B-4DF4-AE8C-8C20147ABC40}" name="Visionados" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{FF19B5AE-C56B-4CA5-B812-840E5C110430}" name="FA redondeo"/>
     <tableColumn id="6" xr3:uid="{20BAA72D-A773-488D-B544-DAD2EF762D99}" name="Diferencia"/>
     <tableColumn id="7" xr3:uid="{E40D682E-5136-4AEB-BEE2-B6B87967AFB0}" name="Diferencia abs"/>
-    <tableColumn id="8" xr3:uid="{7FF8C3DD-322A-4235-83BB-7D30EE81A4BF}" name="Me ha gustado más" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{7FF8C3DD-322A-4235-83BB-7D30EE81A4BF}" name="Me ha gustado más" dataDxfId="4">
       <calculatedColumnFormula>IF($G2&gt;0,1,0.1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C6FE0FC6-41FF-42DC-95D7-3BA16482D743}" name="Mia + ruido" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{1D5E088C-37BD-4B8F-BD0A-602AB1027E68}" name="Mia reescalado" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{19C47E50-9952-473E-A08A-65D82E3962A6}" name="FA reescalado" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{C6FE0FC6-41FF-42DC-95D7-3BA16482D743}" name="Mia + ruido" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{F6539847-A910-4F63-B100-298A992D7D82}" name="FA + ruido" dataDxfId="2">
+      <calculatedColumnFormula>C2+(RAND()-0.5)/10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{1D5E088C-37BD-4B8F-BD0A-602AB1027E68}" name="Mia reescalado" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{19C47E50-9952-473E-A08A-65D82E3962A6}" name="FA reescalado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13870,10 +13881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8703B0C1-9812-4468-A745-94BA8D5548CD}">
-  <dimension ref="A1:AC165"/>
+  <dimension ref="A1:AD165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13887,21 +13898,21 @@
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="80" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="78" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
-    <col min="23" max="23" width="4.7109375" customWidth="1"/>
-    <col min="24" max="24" width="10.85546875" customWidth="1"/>
-    <col min="28" max="28" width="17.5703125" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" customWidth="1"/>
-    <col min="36" max="36" width="7.5703125" customWidth="1"/>
+    <col min="10" max="11" width="7.42578125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="18" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="78" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" customWidth="1"/>
+    <col min="29" max="29" width="17.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" customWidth="1"/>
+    <col min="37" max="37" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -13932,14 +13943,17 @@
       <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="M1" s="78" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>555555</v>
       </c>
@@ -13973,280 +13987,284 @@
       </c>
       <c r="J2" s="30">
         <f t="shared" ref="J2" ca="1" si="3">B2+RAND()-0.5</f>
-        <v>2.1978834288391433</v>
-      </c>
-      <c r="K2" s="17">
-        <f t="shared" ref="K2" si="4">(B2-1)*10/9</f>
+        <v>2.2188276872210952</v>
+      </c>
+      <c r="K2" s="30">
+        <f t="shared" ref="K2" ca="1" si="4">C2+(RAND()-0.5)/10</f>
+        <v>5.4285863685530513</v>
+      </c>
+      <c r="L2" s="17">
+        <f t="shared" ref="L2" si="5">(B2-1)*10/9</f>
         <v>1.1111111111111112</v>
       </c>
-      <c r="L2" s="79">
-        <f t="shared" ref="L2" si="5">(C2-1)*10/9</f>
+      <c r="M2" s="79">
+        <f t="shared" ref="M2" si="6">(C2-1)*10/9</f>
         <v>4.8888888888888893</v>
       </c>
-      <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
-      <c r="T2" s="55"/>
+      <c r="Q2" s="27"/>
       <c r="U2" s="55"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M3" s="29"/>
+      <c r="V2" s="55"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
-      <c r="P3" s="27"/>
-      <c r="T3" s="55"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="27"/>
       <c r="U3" s="55"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M4" s="29"/>
+      <c r="V3" s="55"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
-      <c r="P4" s="27"/>
-      <c r="T4" s="56"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="27"/>
       <c r="U4" s="56"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M5" s="27"/>
+      <c r="V4" s="56"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
-      <c r="T5" s="56"/>
+      <c r="Q5" s="27"/>
       <c r="U5" s="56"/>
-      <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M6" s="27"/>
+      <c r="V5" s="56"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
-      <c r="T6" s="56"/>
+      <c r="Q6" s="27"/>
       <c r="U6" s="56"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M7" s="27"/>
+      <c r="V6" s="56"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
-      <c r="T7" s="56"/>
+      <c r="Q7" s="27"/>
       <c r="U7" s="56"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M8" s="27"/>
+      <c r="V7" s="56"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
-      <c r="T8" s="56"/>
+      <c r="Q8" s="27"/>
       <c r="U8" s="56"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M9" s="27"/>
+      <c r="V8" s="56"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
-      <c r="T9" s="56"/>
+      <c r="Q9" s="27"/>
       <c r="U9" s="56"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M10" s="27"/>
+      <c r="V9" s="56"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
-      <c r="T10" s="56"/>
+      <c r="Q10" s="27"/>
       <c r="U10" s="56"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M11" s="27"/>
+      <c r="V10" s="56"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N11" s="27"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
-      <c r="T11" s="56"/>
+      <c r="Q11" s="27"/>
       <c r="U11" s="56"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M12" s="27"/>
+      <c r="V11" s="56"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
-      <c r="T12" s="56"/>
+      <c r="Q12" s="27"/>
       <c r="U12" s="56"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M13" s="27"/>
+      <c r="V12" s="56"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
-      <c r="T13" s="56"/>
+      <c r="Q13" s="27"/>
       <c r="U13" s="56"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M14" s="27"/>
+      <c r="V13" s="56"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
-      <c r="T14" s="56"/>
+      <c r="Q14" s="27"/>
       <c r="U14" s="56"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M15" s="27"/>
+      <c r="V14" s="56"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
-      <c r="T15" s="56"/>
+      <c r="Q15" s="27"/>
       <c r="U15" s="56"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="M16" s="27"/>
+      <c r="V15" s="56"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
-      <c r="T16" s="56"/>
+      <c r="Q16" s="27"/>
       <c r="U16" s="56"/>
-    </row>
-    <row r="17" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T17" s="56"/>
+      <c r="V16" s="56"/>
+    </row>
+    <row r="17" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U17" s="56"/>
-    </row>
-    <row r="18" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T18" s="56"/>
+      <c r="V17" s="56"/>
+    </row>
+    <row r="18" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U18" s="56"/>
-    </row>
-    <row r="19" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T19" s="56"/>
+      <c r="V18" s="56"/>
+    </row>
+    <row r="19" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U19" s="56"/>
-    </row>
-    <row r="20" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T20" s="56"/>
+      <c r="V19" s="56"/>
+    </row>
+    <row r="20" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U20" s="56"/>
-    </row>
-    <row r="21" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T21" s="56"/>
+      <c r="V20" s="56"/>
+    </row>
+    <row r="21" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U21" s="56"/>
-    </row>
-    <row r="22" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T22" s="56"/>
+      <c r="V21" s="56"/>
+    </row>
+    <row r="22" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U22" s="56"/>
-    </row>
-    <row r="23" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T23" s="56"/>
+      <c r="V22" s="56"/>
+    </row>
+    <row r="23" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U23" s="56"/>
-    </row>
-    <row r="24" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T24" s="56"/>
+      <c r="V23" s="56"/>
+    </row>
+    <row r="24" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U24" s="56"/>
-    </row>
-    <row r="25" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T25" s="56"/>
+      <c r="V24" s="56"/>
+    </row>
+    <row r="25" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U25" s="56"/>
-    </row>
-    <row r="26" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T26" s="56"/>
+      <c r="V25" s="56"/>
+    </row>
+    <row r="26" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U26" s="56"/>
-    </row>
-    <row r="27" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T27" s="56"/>
+      <c r="V26" s="56"/>
+    </row>
+    <row r="27" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U27" s="56"/>
-    </row>
-    <row r="28" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T28" s="56"/>
+      <c r="V27" s="56"/>
+    </row>
+    <row r="28" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U28" s="56"/>
-    </row>
-    <row r="29" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T29" s="56"/>
+      <c r="V28" s="56"/>
+    </row>
+    <row r="29" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U29" s="56"/>
-    </row>
-    <row r="30" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T30" s="56"/>
+      <c r="V29" s="56"/>
+    </row>
+    <row r="30" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U30" s="56"/>
-    </row>
-    <row r="31" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T31" s="56"/>
+      <c r="V30" s="56"/>
+    </row>
+    <row r="31" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U31" s="56"/>
-    </row>
-    <row r="32" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T32" s="56"/>
+      <c r="V31" s="56"/>
+    </row>
+    <row r="32" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U32" s="56"/>
-    </row>
-    <row r="33" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T33" s="56"/>
+      <c r="V32" s="56"/>
+    </row>
+    <row r="33" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U33" s="56"/>
-    </row>
-    <row r="34" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T34" s="56"/>
+      <c r="V33" s="56"/>
+    </row>
+    <row r="34" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U34" s="56"/>
-    </row>
-    <row r="35" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T35" s="56"/>
+      <c r="V34" s="56"/>
+    </row>
+    <row r="35" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U35" s="56"/>
-    </row>
-    <row r="36" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T36" s="56"/>
+      <c r="V35" s="56"/>
+    </row>
+    <row r="36" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U36" s="56"/>
-    </row>
-    <row r="37" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T37" s="56"/>
+      <c r="V36" s="56"/>
+    </row>
+    <row r="37" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U37" s="56"/>
-    </row>
-    <row r="38" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T38" s="56"/>
+      <c r="V37" s="56"/>
+    </row>
+    <row r="38" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U38" s="56"/>
-    </row>
-    <row r="39" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T39" s="56"/>
+      <c r="V38" s="56"/>
+    </row>
+    <row r="39" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U39" s="56"/>
-    </row>
-    <row r="40" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T40" s="56"/>
+      <c r="V39" s="56"/>
+    </row>
+    <row r="40" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U40" s="56"/>
-    </row>
-    <row r="41" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T41" s="56"/>
+      <c r="V40" s="56"/>
+    </row>
+    <row r="41" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U41" s="56"/>
-    </row>
-    <row r="42" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T42" s="56"/>
+      <c r="V41" s="56"/>
+    </row>
+    <row r="42" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U42" s="56"/>
-    </row>
-    <row r="43" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T43" s="55"/>
+      <c r="V42" s="56"/>
+    </row>
+    <row r="43" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U43" s="55"/>
-    </row>
-    <row r="44" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T44" s="55"/>
+      <c r="V43" s="55"/>
+    </row>
+    <row r="44" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U44" s="55"/>
-    </row>
-    <row r="45" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T45" s="55"/>
+      <c r="V44" s="55"/>
+    </row>
+    <row r="45" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U45" s="55"/>
-    </row>
-    <row r="46" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T46" s="55"/>
+      <c r="V45" s="55"/>
+    </row>
+    <row r="46" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U46" s="55"/>
-    </row>
-    <row r="47" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T47" s="55"/>
+      <c r="V46" s="55"/>
+    </row>
+    <row r="47" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U47" s="55"/>
-    </row>
-    <row r="48" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T48" s="55"/>
+      <c r="V47" s="55"/>
+    </row>
+    <row r="48" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U48" s="55"/>
-    </row>
-    <row r="49" spans="20:21" x14ac:dyDescent="0.25">
-      <c r="T49" s="55"/>
+      <c r="V48" s="55"/>
+    </row>
+    <row r="49" spans="21:22" x14ac:dyDescent="0.25">
       <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
     </row>
     <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -14258,7 +14276,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="M1:M1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -14293,7 +14311,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14541,7 +14559,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="15">
-        <f>STDEVP(Notas!L:L)</f>
+        <f>STDEVP(Notas!M:M)</f>
         <v>0</v>
       </c>
       <c r="E15" s="66"/>
@@ -14565,7 +14583,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="11">
-        <f>STDEVP(Notas!K:K)</f>
+        <f>STDEVP(Notas!L:L)</f>
         <v>0</v>
       </c>
       <c r="E16" s="66"/>

--- a/Readdata/Plantilla.xlsx
+++ b/Readdata/Plantilla.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3382DC6C-FA54-4415-A47D-DD0DF440B355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B167A1C9-011B-4351-AD19-177AE6001E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notas" sheetId="3" r:id="rId1"/>
@@ -1089,7 +1089,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
-                  <c:v>5.4285863685530513</c:v>
+                  <c:v>5.44162815781094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,7 +1101,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
-                  <c:v>2.2188276872210952</c:v>
+                  <c:v>2.4605381046842036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2061,12 +2061,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Notas!$B$2:$B$1048576</c:f>
+              <c:f>Notas!$J$2:$J$1048576</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.4605381046842036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4869,12 +4869,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Notas!$B$2:$B$1048576</c:f>
+              <c:f>Notas!$J$2:$J$1048576</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1048575"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.4605381046842036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4980,7 +4980,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13883,8 +13883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8703B0C1-9812-4468-A745-94BA8D5548CD}">
   <dimension ref="A1:AD165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13987,11 +13987,11 @@
       </c>
       <c r="J2" s="30">
         <f t="shared" ref="J2" ca="1" si="3">B2+RAND()-0.5</f>
-        <v>2.2188276872210952</v>
+        <v>2.4605381046842036</v>
       </c>
       <c r="K2" s="30">
         <f t="shared" ref="K2" ca="1" si="4">C2+(RAND()-0.5)/10</f>
-        <v>5.4285863685530513</v>
+        <v>5.44162815781094</v>
       </c>
       <c r="L2" s="17">
         <f t="shared" ref="L2" si="5">(B2-1)*10/9</f>
@@ -14621,7 +14621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB957686-4157-457C-B9AD-66FD2970B9E3}">
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -15349,7 +15349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB35113E-0C06-4EAF-8941-AA6250700856}">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -17021,7 +17021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B5ED56-93C2-495B-9ED0-E04AF59C2259}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
